--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inspiron\Desktop\SE120067-68\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>13. 6817杨力、6828康乐、6814刘标、6834裴泽军、6732陈晨</t>
   </si>
@@ -149,6 +154,10 @@
   </si>
   <si>
     <t>软件设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,12 +236,88 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -244,7 +329,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -561,18 +646,18 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -589,7 +674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34">
+    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6701</v>
       </c>
@@ -599,8 +684,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="34">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6702</v>
       </c>
@@ -611,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34">
+    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6703</v>
       </c>
@@ -622,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34">
+    <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6704</v>
       </c>
@@ -633,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34">
+    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6705</v>
       </c>
@@ -644,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34">
+    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6706</v>
       </c>
@@ -655,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34">
+    <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6707</v>
       </c>
@@ -666,7 +754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34">
+    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6801</v>
       </c>
@@ -677,7 +765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34">
+    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6802</v>
       </c>
@@ -688,7 +776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34">
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6803</v>
       </c>
@@ -699,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34">
+    <row r="12" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6804</v>
       </c>
@@ -710,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34">
+    <row r="13" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6805</v>
       </c>
@@ -721,7 +809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="34">
+    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6806</v>
       </c>
@@ -732,7 +820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34">
+    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6807</v>
       </c>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inspiron\Desktop\SE120067-68\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE120067-68\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,7 +157,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t>modifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +329,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -834,7 +834,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE120067-68\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inspiron\Desktop\SE120067-68\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,7 +157,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>modifier</t>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +329,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -834,7 +834,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE120067-68\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14175" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>13. 6817杨力、6828康乐、6814刘标、6834裴泽军、6732陈晨</t>
   </si>
@@ -154,10 +149,6 @@
   </si>
   <si>
     <t>软件设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,9 +227,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -329,7 +320,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -646,18 +637,18 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -674,7 +665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="37.5">
       <c r="A2">
         <v>6701</v>
       </c>
@@ -684,11 +675,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.5">
       <c r="A3">
         <v>6702</v>
       </c>
@@ -698,8 +689,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37.5">
       <c r="A4">
         <v>6703</v>
       </c>
@@ -710,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="37.5">
       <c r="A5">
         <v>6704</v>
       </c>
@@ -721,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="37.5">
       <c r="A6">
         <v>6705</v>
       </c>
@@ -732,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="37.5">
       <c r="A7">
         <v>6706</v>
       </c>
@@ -743,7 +737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="37.5">
       <c r="A8">
         <v>6707</v>
       </c>
@@ -754,7 +748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="37.5">
       <c r="A9">
         <v>6801</v>
       </c>
@@ -765,7 +759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="37.5">
       <c r="A10">
         <v>6802</v>
       </c>
@@ -776,7 +770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="37.5">
       <c r="A11">
         <v>6803</v>
       </c>
@@ -787,7 +781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="37.5">
       <c r="A12">
         <v>6804</v>
       </c>
@@ -798,7 +792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="37.5">
       <c r="A13">
         <v>6805</v>
       </c>
@@ -809,7 +803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="37.5">
       <c r="A14">
         <v>6806</v>
       </c>
@@ -820,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="37.5">
       <c r="A15">
         <v>6807</v>
       </c>
@@ -834,7 +828,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -231,7 +231,26 @@
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
@@ -310,6 +329,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="小组编号"/>
+    <tableColumn id="2" name="成员" dataDxfId="0"/>
+    <tableColumn id="3" name="课题"/>
+    <tableColumn id="4" name="需求分析"/>
+    <tableColumn id="5" name="软件设计"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,15 +670,15 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -665,7 +698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5">
+    <row r="2" spans="1:5" ht="34">
       <c r="A2">
         <v>6701</v>
       </c>
@@ -679,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5">
+    <row r="3" spans="1:5" ht="34">
       <c r="A3">
         <v>6702</v>
       </c>
@@ -693,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5">
+    <row r="4" spans="1:5" ht="34">
       <c r="A4">
         <v>6703</v>
       </c>
@@ -704,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5">
+    <row r="5" spans="1:5" ht="34">
       <c r="A5">
         <v>6704</v>
       </c>
@@ -714,8 +747,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="37.5">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34">
       <c r="A6">
         <v>6705</v>
       </c>
@@ -725,8 +761,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="37.5">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34">
       <c r="A7">
         <v>6706</v>
       </c>
@@ -736,8 +775,11 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="37.5">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34">
       <c r="A8">
         <v>6707</v>
       </c>
@@ -748,7 +790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37.5">
+    <row r="9" spans="1:5" ht="34">
       <c r="A9">
         <v>6801</v>
       </c>
@@ -758,8 +800,11 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.5">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34">
       <c r="A10">
         <v>6802</v>
       </c>
@@ -770,7 +815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="37.5">
+    <row r="11" spans="1:5" ht="34">
       <c r="A11">
         <v>6803</v>
       </c>
@@ -780,8 +825,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="37.5">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34">
       <c r="A12">
         <v>6804</v>
       </c>
@@ -792,7 +840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="37.5">
+    <row r="13" spans="1:5" ht="34">
       <c r="A13">
         <v>6805</v>
       </c>
@@ -803,7 +851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="37.5">
+    <row r="14" spans="1:5" ht="34">
       <c r="A14">
         <v>6806</v>
       </c>
@@ -813,8 +861,11 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="37.5">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34">
       <c r="A15">
         <v>6807</v>
       </c>
@@ -823,12 +874,18 @@
       </c>
       <c r="C15" t="s">
         <v>15</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34">
@@ -736,6 +736,9 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="34">
       <c r="A5">
@@ -748,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34">
@@ -762,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34">
@@ -789,6 +792,9 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="34">
       <c r="A9">
@@ -813,6 +819,9 @@
       </c>
       <c r="C10" t="s">
         <v>24</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34">

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>13. 6817杨力、6828康乐、6814刘标、6834裴泽军、6732陈晨</t>
   </si>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《智能眼镜》。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*7. 6727吴扬州、6721王慧峰、6715王青、6718王涛。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +145,50 @@
   </si>
   <si>
     <t>软件设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12，OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12，OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《网上订餐系统》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12，OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12，OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  继续修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 继续修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 继续修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 继续修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  继续修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -692,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34">
@@ -708,8 +748,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -722,8 +762,8 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>12</v>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34">
@@ -737,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34">
@@ -750,8 +790,8 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>12</v>
+      <c r="D5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34">
@@ -773,13 +813,13 @@
         <v>6706</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34">
@@ -787,13 +827,13 @@
         <v>6707</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -804,10 +844,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34">
@@ -820,8 +860,8 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10">
-        <v>12</v>
+      <c r="D10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34">
@@ -834,8 +874,8 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34">
@@ -848,6 +888,9 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="34">
       <c r="A13">
@@ -859,6 +902,9 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="34">
       <c r="A14">
@@ -870,8 +916,8 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34">
@@ -884,8 +930,8 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>13. 6817杨力、6828康乐、6814刘标、6834裴泽军、6732陈晨</t>
   </si>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 《高品质生活》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《防逃课软件》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,11 +180,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 继续修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1  继续修改</t>
+    <t>123，OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 《水果新鲜度测试软件》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  2 OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +714,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -732,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34">
@@ -749,7 +753,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -763,7 +770,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34">
@@ -791,7 +801,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34">
@@ -813,13 +826,16 @@
         <v>6706</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34">
@@ -827,13 +843,13 @@
         <v>6707</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -841,13 +857,13 @@
         <v>6801</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34">
@@ -855,13 +871,16 @@
         <v>6802</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34">
@@ -869,13 +888,16 @@
         <v>6803</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34">
@@ -883,13 +905,13 @@
         <v>6804</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34">
@@ -897,13 +919,13 @@
         <v>6805</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34">
@@ -914,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34">
@@ -928,10 +950,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>13. 6817杨力、6828康乐、6814刘标、6834裴泽军、6732陈晨</t>
   </si>
@@ -164,14 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1，OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1  继续修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 继续修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +185,26 @@
   </si>
   <si>
     <t>1  2 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  2 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，OK 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2  ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2  ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,10 +276,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -376,8 +392,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16"/>
   <tableColumns count="5">
     <tableColumn id="1" name="小组编号"/>
     <tableColumn id="2" name="成员" dataDxfId="0"/>
@@ -711,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -753,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -820,6 +836,9 @@
       <c r="D6">
         <v>12</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="34">
       <c r="A7">
@@ -832,10 +851,10 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34">
@@ -849,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -865,6 +884,9 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="34">
       <c r="A10">
@@ -896,8 +918,8 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34">
@@ -911,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34">
@@ -925,7 +947,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34">
@@ -939,7 +961,10 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34">
@@ -950,14 +975,21 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" ht="17">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>13. 6817杨力、6828康乐、6814刘标、6834裴泽军、6732陈晨</t>
   </si>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 继续修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123，OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,15 +192,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 2  ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 2  ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 2 </t>
+    <t xml:space="preserve">1  2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  2  ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  2  ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1  2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 继续修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1  2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +738,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -769,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -819,8 +827,8 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34">
@@ -851,10 +859,10 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34">
@@ -868,7 +876,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -901,8 +912,8 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34">
@@ -919,7 +930,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34">
@@ -947,7 +958,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34">
@@ -961,7 +975,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -975,10 +989,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
       </c>
       <c r="E15">
         <v>1</v>

--- a/120067-68课题汇总表.xlsx
+++ b/120067-68课题汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>13. 6817杨力、6828康乐、6814刘标、6834裴泽军、6732陈晨</t>
   </si>
@@ -212,7 +212,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1  2 </t>
+    <t>1 2  ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  2  ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  2  ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -810,8 +826,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>12</v>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34">
@@ -828,7 +847,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34">
@@ -841,11 +860,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34">
@@ -994,8 +1013,8 @@
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17">
